--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507321.524907337</v>
+        <v>3505070.706521443</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8982738110965465</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>374.2461442616172</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>147.2675521453878</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>360.6664298120019</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955304</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586842</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993774</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7268717888057</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,10 +1582,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>44.17970120049755</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785992</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>118.964518711185</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785989</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>217.212985142111</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>200.223424961629</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785984</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>200.1941765543143</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004742</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785976</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>125.7070030407806</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>34.70358683202964</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>70.12424455218918</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W34" t="n">
-        <v>258.1266653077544</v>
+        <v>188.4399242581091</v>
       </c>
       <c r="X34" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>51.19843204834082</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>28.70662586403422</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100147</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U37" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W37" t="n">
         <v>258.1266653077544</v>
@@ -3490,7 +3490,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>150.6654910165014</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>71.8031922844377</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121072</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U40" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W40" t="n">
         <v>258.1266653077544</v>
@@ -3727,7 +3727,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>71.80319228443712</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
-        <v>258.1266653077544</v>
+        <v>117.5455235693202</v>
       </c>
       <c r="X43" t="n">
         <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>131.0736454040422</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>117.0247149940946</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.98667634421122</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.8658378359718</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2696.241743734287</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.064256048457</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.064256048457</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2266.302470686548</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.239583342978</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1582.470928072863</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.005169811784</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>818.8658378359718</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,16 +4398,16 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4513,22 +4513,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.5755868835433</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>919.5755868835433</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>919.5755868835433</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>919.5755868835433</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>912.6300861343399</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859355</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835433</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>360.4464575649937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936052</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>439.1214116936052</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,19 +5042,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467752</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,34 +5130,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.4172407837245</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.265005692472</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.847835655512</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X13" t="n">
-        <v>980.8582847574944</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.0657056139643</v>
+        <v>391.8664332433622</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>657.3479225192157</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5437,10 +5437,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
         <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2584.171204687568</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>659.9741347416135</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>659.9741347416135</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>509.8574953292779</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>361.9444017468846</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>361.9444017468848</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>841.6225995718532</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5789,7 +5789,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736757</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736757</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736757</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736757</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1545.250526232427</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U22" t="n">
-        <v>1256.147659358071</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V22" t="n">
-        <v>1001.463171152184</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W22" t="n">
-        <v>712.0460011152231</v>
+        <v>841.6225995718544</v>
       </c>
       <c r="X22" t="n">
-        <v>484.0564502172058</v>
+        <v>613.633048673837</v>
       </c>
       <c r="Y22" t="n">
-        <v>263.2638710736757</v>
+        <v>411.3871648742117</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,22 +5993,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N23" t="n">
-        <v>3316.966490094645</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4246.247123084118</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4704.725325593106</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>559.3002584566048</v>
+      </c>
+      <c r="C25" t="n">
+        <v>390.3640755286979</v>
+      </c>
+      <c r="D25" t="n">
+        <v>390.3640755286979</v>
+      </c>
+      <c r="E25" t="n">
+        <v>242.4509819463048</v>
+      </c>
+      <c r="F25" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C25" t="n">
-        <v>95.56103444839438</v>
-      </c>
-      <c r="D25" t="n">
-        <v>95.56103444839432</v>
-      </c>
-      <c r="E25" t="n">
-        <v>95.56103444839425</v>
-      </c>
-      <c r="F25" t="n">
-        <v>95.56103444839422</v>
-      </c>
       <c r="G25" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,34 +6163,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201817</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221643</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6254,16 +6254,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,52 +6382,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442059</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.09328756303</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357143</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>243.4741280307875</v>
+      </c>
+      <c r="C31" t="n">
+        <v>243.4741280307875</v>
+      </c>
+      <c r="D31" t="n">
+        <v>243.4741280307875</v>
+      </c>
+      <c r="E31" t="n">
         <v>95.56103444839442</v>
-      </c>
-      <c r="C31" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="D31" t="n">
-        <v>95.56103444839442</v>
-      </c>
-      <c r="E31" t="n">
-        <v>95.56103444839445</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,19 +6622,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W31" t="n">
-        <v>709.686441383852</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858346</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423045</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383112</v>
+        <v>542.8634764632059</v>
       </c>
       <c r="C34" t="n">
-        <v>472.4728289383112</v>
+        <v>542.8634764632059</v>
       </c>
       <c r="D34" t="n">
-        <v>472.4728289383112</v>
+        <v>421.4300017264627</v>
       </c>
       <c r="E34" t="n">
-        <v>353.2429000315108</v>
+        <v>421.4300017264627</v>
       </c>
       <c r="F34" t="n">
-        <v>235.0361172091931</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="G34" t="n">
         <v>164.2035469544565</v>
@@ -6856,16 +6856,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938781</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413027</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N34" t="n">
         <v>1487.357919090857</v>
@@ -6874,10 +6874,10 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
@@ -6895,13 +6895,13 @@
         <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783321</v>
+        <v>1087.244577308215</v>
       </c>
       <c r="X34" t="n">
-        <v>817.547543560896</v>
+        <v>887.9381910857904</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929584</v>
+        <v>695.828776617853</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383116</v>
+        <v>472.4728289383125</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383116</v>
+        <v>332.2198106859983</v>
       </c>
       <c r="D37" t="n">
-        <v>420.7572410106947</v>
+        <v>332.2198106859983</v>
       </c>
       <c r="E37" t="n">
-        <v>420.7572410106947</v>
+        <v>332.2198106859983</v>
       </c>
       <c r="F37" t="n">
-        <v>420.7572410106947</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="G37" t="n">
-        <v>281.7375690610062</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H37" t="n">
         <v>164.2035469544565</v>
@@ -7096,16 +7096,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
@@ -7117,10 +7117,10 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S37" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T37" t="n">
         <v>1764.008960873748</v>
@@ -7129,16 +7129,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608967</v>
+        <v>817.5475435608972</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.438129092959</v>
+        <v>625.4381290929597</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.86673817257</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>472.4728289383115</v>
+        <v>473.250764429827</v>
       </c>
       <c r="C40" t="n">
-        <v>472.4728289383115</v>
+        <v>332.9977461775127</v>
       </c>
       <c r="D40" t="n">
-        <v>472.4728289383115</v>
+        <v>332.9977461775127</v>
       </c>
       <c r="E40" t="n">
-        <v>472.4728289383115</v>
+        <v>213.7678172707122</v>
       </c>
       <c r="F40" t="n">
-        <v>354.2660461159937</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,49 +7333,49 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413029</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N40" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O40" t="n">
-        <v>1814.799887709819</v>
+        <v>1814.79988770982</v>
       </c>
       <c r="P40" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S40" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
         <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W40" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608962</v>
+        <v>817.5475435608975</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929587</v>
+        <v>625.4381290929599</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.472828938311</v>
+        <v>614.473982209458</v>
       </c>
       <c r="C43" t="n">
-        <v>472.472828938311</v>
+        <v>474.2209639571437</v>
       </c>
       <c r="D43" t="n">
-        <v>472.472828938311</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="E43" t="n">
-        <v>472.472828938311</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="F43" t="n">
-        <v>354.2660461159932</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G43" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413028</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L43" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
-        <v>1814.799887709818</v>
+        <v>1814.79988770982</v>
       </c>
       <c r="P43" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.242423693088</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2120.095131126209</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S43" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.008960873746</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.587935144688</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.85392978332</v>
+        <v>1158.855083054467</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608956</v>
+        <v>959.5486968320427</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929581</v>
+        <v>767.4392823641051</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,22 +7728,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.6201215051924</v>
+        <v>493.0405074727149</v>
       </c>
       <c r="C46" t="n">
-        <v>533.6201215051924</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="D46" t="n">
-        <v>533.6201215051924</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="E46" t="n">
-        <v>414.3901925983919</v>
+        <v>352.7874892204006</v>
       </c>
       <c r="F46" t="n">
-        <v>296.183409776074</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G46" t="n">
-        <v>157.1637378263856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1637378263856</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,10 +7807,10 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413031</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883476</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M46" t="n">
         <v>1117.837172686445</v>
@@ -7819,37 +7819,37 @@
         <v>1487.357919090858</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.242423693091</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S46" t="n">
-        <v>2018.23970419551</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1564.736551241864</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1338.73522771157</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W46" t="n">
-        <v>1078.001222350202</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>878.6948361277773</v>
+        <v>817.5475435608971</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.5854216598395</v>
+        <v>625.4381290929596</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,22 +8690,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>317.5146261106152</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>39.48321557772658</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>80.35488666587514</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>89.52456338962088</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>410.4190035206667</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>258.621178561693</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.45386895940618</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>384.814589375506</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>374.169394802195</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>163.3991441460101</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>248.8012738805282</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>229.1155640189935</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.51994930982209</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>207.9579421233304</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>47.06128954784344</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.335964134058258</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18.36122839046575</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270146</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>51.94346676951366</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143209</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270153</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>100.0026523482566</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>251.5082513735832</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>67.50523067800241</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>116.3586818854841</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>69.68674104964529</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>69.02070794103491</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
         <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>88.31808913006036</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.7701561365992688</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>65.82628294575389</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>118.0376296177325</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>65.82628294575447</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>140.5811417384342</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>20.36200174905844</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>6.96941103679022</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121065</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692394.6160973812</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
+        <v>714747.2163965701</v>
+      </c>
+      <c r="F2" t="n">
         <v>714747.2163965699</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>714747.2163965701</v>
+      </c>
+      <c r="H2" t="n">
         <v>714747.21639657</v>
       </c>
-      <c r="G2" t="n">
-        <v>714747.2163965702</v>
-      </c>
-      <c r="H2" t="n">
-        <v>714747.2163965699</v>
-      </c>
       <c r="I2" t="n">
-        <v>714747.21639657</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965699</v>
+        <v>714747.2163965697</v>
       </c>
       <c r="K2" t="n">
-        <v>714747.2163965697</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="L2" t="n">
-        <v>729370.2284004067</v>
+        <v>729370.2284004058</v>
       </c>
       <c r="M2" t="n">
-        <v>729370.2284004055</v>
+        <v>729370.2284004057</v>
       </c>
       <c r="N2" t="n">
-        <v>729370.2284004057</v>
+        <v>729370.2284004063</v>
       </c>
       <c r="O2" t="n">
+        <v>729370.2284004058</v>
+      </c>
+      <c r="P2" t="n">
         <v>729370.2284004061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>729370.2284004064</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.0664230693</v>
+        <v>22717.06642306916</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918998</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918987</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="L4" t="n">
+        <v>27492.30103190632</v>
+      </c>
+      <c r="M4" t="n">
         <v>27492.30103190629</v>
       </c>
-      <c r="M4" t="n">
-        <v>27492.30103190627</v>
-      </c>
       <c r="N4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="O4" t="n">
+        <v>27492.30103190629</v>
+      </c>
+      <c r="P4" t="n">
         <v>27492.30103190631</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27492.30103190628</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572274</v>
+        <v>-117238.0512572273</v>
       </c>
       <c r="C6" t="n">
         <v>472729.8279573173</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573173</v>
+        <v>472729.8279573176</v>
       </c>
       <c r="E6" t="n">
-        <v>-127162.2081697406</v>
+        <v>-127229.4036599659</v>
       </c>
       <c r="F6" t="n">
-        <v>600215.2058236664</v>
+        <v>600148.0103334405</v>
       </c>
       <c r="G6" t="n">
-        <v>600215.2058236668</v>
+        <v>600148.0103334407</v>
       </c>
       <c r="H6" t="n">
-        <v>600215.2058236663</v>
+        <v>600148.0103334405</v>
       </c>
       <c r="I6" t="n">
-        <v>600215.2058236664</v>
+        <v>600148.0103334407</v>
       </c>
       <c r="J6" t="n">
-        <v>423791.9866310733</v>
+        <v>423724.7911408474</v>
       </c>
       <c r="K6" t="n">
-        <v>600215.2058236662</v>
+        <v>600148.0103334407</v>
       </c>
       <c r="L6" t="n">
-        <v>580390.0913703161</v>
+        <v>580363.5153578782</v>
       </c>
       <c r="M6" t="n">
-        <v>473464.8429544395</v>
+        <v>473438.2669420022</v>
       </c>
       <c r="N6" t="n">
-        <v>603107.1577933845</v>
+        <v>603080.5817809477</v>
       </c>
       <c r="O6" t="n">
-        <v>603107.1577933849</v>
+        <v>603080.5817809473</v>
       </c>
       <c r="P6" t="n">
-        <v>603107.1577933847</v>
+        <v>603080.5817809475</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>53.58012876371518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>39.5380257591778</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>20.0422501136631</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031431</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>21.26394026025986</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.7380702094185</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.23311616204</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.91584383599736e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.028228216419384e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-5.018581577683018e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660156</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>376.6745021331271</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>619.2760024961019</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>597.5775642778399</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>962.7208389335782</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789361</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>766.6741794499121</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>74.06706750163096</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>840.4047037678382</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
         <v>78.39423853789366</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>882.2223956904141</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>414.1934489497296</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36993,7 +36993,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>801.1031092934395</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190286</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37242,7 +37242,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M37" t="n">
         <v>376.0297124223205</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,7 +37558,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M40" t="n">
         <v>376.0297124223205</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q43" t="n">
         <v>106.7905715667303</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>737.1685649072126</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.9747496419029</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
         <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
         <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
         <v>263.3534041739471</v>
